--- a/biology/Zoologie/Cercomela/Cercomela.xlsx
+++ b/biology/Zoologie/Cercomela/Cercomela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cercomela regroupait des espèces de passereaux de la famille des Muscicapidae. À partir de la version 2.10 (2011) de la classification de référence du Congrès ornithologique international, les espèces de ce genre sont déplacées dans les genres Oenanthe et Emarginata. Ce changement s'appuie sur les travaux de Outlaw et al. (2010).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 2.5, 2010) du Congrès ornithologique international (ordre phylogénique) :
 Cercomela sinuata – Traquet aile-en-faux
